--- a/10.JExam/mini_Project/20210826_테이블정의서_코스모.xlsx
+++ b/10.JExam/mini_Project/20210826_테이블정의서_코스모.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="10365" windowHeight="9150" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="21345" windowHeight="9720" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="테이블 정의서" sheetId="1" r:id="rId4"/>
@@ -21,10 +21,231 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="99">
   <x:si>
+    <x:t>영어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KPW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>직업</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BPW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김찬기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>길이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KHP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>취미</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>초기값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜+순서 : YYYYMMDD0001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삭제여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일련
+번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서브시스템명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NULL
+여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 정의서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PAGE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비  고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B0001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KBIRTH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SYSDATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KSKILL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KHOBBY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KEY-IN</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">회원 테이블 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>글 비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KADDR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KNUM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KPHOTO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생년월일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한글이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KGENDER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KJOB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>휴대폰번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KNAME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KEMAIL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글 쓴 사람</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패스워드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BWRITER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KTEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글 내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BNUM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블정의서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y : 게시, N : 게시안함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우편번호 + 도로명주소 + 상세주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개               요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자   료        규   칙</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사진이 저장된 파일 경로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y : 회원, N : 비회원</x:t>
+  </x:si>
+  <x:si>
     <x:t>XXX-XXXXX-XXXXX</x:t>
   </x:si>
   <x:si>
-    <x:t>Y : 회원, N : 비회원</x:t>
+    <x:t xml:space="preserve">회원 정보가있는 테이블 </x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">게시판 정보가있는 테이블 </x:t>
@@ -33,22 +254,7 @@
     <x:t>작     성     자</x:t>
   </x:si>
   <x:si>
-    <x:t>사진이 저장된 파일 경로</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">회원 정보가있는 테이블 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>01:게임, 02:음악감상, 03:운동, 04:독서, 05:영화, 08:명상</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">01:회사원, 02:자영업, 03:학생, 04:주부, 05:무직, 06:시인 </x:t>
-  </x:si>
-  <x:si>
     <x:t>KCK_MEMBER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETEYN</x:t>
   </x:si>
   <x:si>
     <x:t>INDEX
@@ -58,269 +264,63 @@
     <x:t>작   성   일</x:t>
   </x:si>
   <x:si>
+    <x:t>YYYY-MM-DD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETEYN</x:t>
+  </x:si>
+  <x:si>
     <x:t>시  스  템   명</x:t>
   </x:si>
   <x:si>
-    <x:t>YYYY-MM-DD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR2</x:t>
+    <x:t xml:space="preserve">8자, 암호화 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATABASE ID</x:t>
   </x:si>
   <x:si>
     <x:t>컬럼ID(영문명)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KCK_BOARD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>orclKOSMO00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬럼명(한글명)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INSERTDATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UPDATEDATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BSUBJECT</x:t>
   </x:si>
   <x:si>
     <x:t>DATA
 TYPE</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">8자, 암호화 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>orclKOSMO00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATABASE ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UPDATEDATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬럼명(한글명)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INSERTDATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BSUBJECT</x:t>
+    <x:t>XXX@도메인주소</x:t>
   </x:si>
   <x:si>
     <x:t>BCONTENTS</x:t>
   </x:si>
   <x:si>
-    <x:t>KCK_BOARD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>XXX@도메인주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜+순서 : YYYYMMDD0001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>길이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>취미</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KPW</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>초기값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김찬기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>직업</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KHP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BPW</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 정의서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일련
-번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삭제여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비  고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서브시스템명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PAGE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NULL
-여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">회원 테이블 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KEY-IN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글 비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>B0001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SYSDATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KBIRTH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KSKILL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KHOBBY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KNUM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KTEL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KADDR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KPHOTO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생년월일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한글이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패스워드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KGENDER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KJOB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>휴대폰번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KNAME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KEMAIL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글 쓴 사람</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BWRITER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글 내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BNUM</x:t>
+    <x:t>01:게임, 02:음악감상, 03:운동, 04:독서, 05:영화, 08:명상</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">01:회사원, 02:자영업, 03:학생, 04:주부, 05:무직, 06:시인 </x:t>
   </x:si>
   <x:si>
     <x:t>F : 여자, M : 남자, 
 01:여자, 02:남자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Y : 게시, N : 게시안함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개               요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자   료        규   칙</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우편번호 + 도로명주소 + 상세주소</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -2026,8 +2026,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="B2:M46"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E15" activeCellId="0" sqref="E15:E15"/>
+    <x:sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="O52" activeCellId="0" sqref="O52:O52"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
@@ -2042,7 +2042,7 @@
   <x:sheetData>
     <x:row r="2" spans="2:13">
       <x:c r="B2" s="33" t="s">
-        <x:v>55</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C2" s="34"/>
       <x:c r="D2" s="34"/>
@@ -2072,7 +2072,7 @@
     </x:row>
     <x:row r="4" spans="2:13">
       <x:c r="B4" s="39" t="s">
-        <x:v>12</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C4" s="40"/>
       <x:c r="D4" s="41"/>
@@ -2084,13 +2084,13 @@
       <x:c r="J4" s="42"/>
       <x:c r="K4" s="43"/>
       <x:c r="L4" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M4" s="3"/>
     </x:row>
     <x:row r="5" spans="2:13">
       <x:c r="B5" s="20" t="s">
-        <x:v>11</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C5" s="21"/>
       <x:c r="D5" s="44">
@@ -2104,19 +2104,19 @@
       <x:c r="J5" s="26"/>
       <x:c r="K5" s="27"/>
       <x:c r="L5" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="M5" s="5" t="s">
-        <x:v>38</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:13">
       <x:c r="B6" s="20" t="s">
-        <x:v>19</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C6" s="21"/>
       <x:c r="D6" s="22" t="s">
-        <x:v>18</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E6" s="23"/>
       <x:c r="F6" s="23"/>
@@ -2126,19 +2126,19 @@
       <x:c r="J6" s="23"/>
       <x:c r="K6" s="24"/>
       <x:c r="L6" s="4" t="s">
-        <x:v>64</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="M6" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:13">
       <x:c r="B7" s="20" t="s">
-        <x:v>60</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C7" s="21"/>
       <x:c r="D7" s="25" t="s">
-        <x:v>66</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E7" s="26"/>
       <x:c r="F7" s="26"/>
@@ -2148,19 +2148,19 @@
       <x:c r="J7" s="26"/>
       <x:c r="K7" s="27"/>
       <x:c r="L7" s="4" t="s">
-        <x:v>62</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="M7" s="5" t="s">
-        <x:v>47</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:13">
       <x:c r="B8" s="28" t="s">
-        <x:v>96</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C8" s="29"/>
       <x:c r="D8" s="30" t="s">
-        <x:v>5</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E8" s="31"/>
       <x:c r="F8" s="31"/>
@@ -2174,37 +2174,37 @@
     </x:row>
     <x:row r="9" spans="2:13" ht="23.899999999999999">
       <x:c r="B9" s="6" t="s">
-        <x:v>57</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C9" s="7" t="s">
-        <x:v>21</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D9" s="7" t="s">
-        <x:v>15</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E9" s="7" t="s">
-        <x:v>16</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F9" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G9" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H9" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I9" s="7" t="s">
-        <x:v>10</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J9" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K9" s="7" t="s">
-        <x:v>37</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="L9" s="18" t="s">
-        <x:v>97</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="M9" s="19"/>
     </x:row>
@@ -2213,26 +2213,26 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C10" s="9" t="s">
-        <x:v>54</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D10" s="11" t="s">
-        <x:v>76</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E10" s="9" t="s">
-        <x:v>14</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F10" s="9">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G10" s="9" t="s">
-        <x:v>35</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H10" s="9"/>
       <x:c r="I10" s="9"/>
       <x:c r="J10" s="9"/>
       <x:c r="K10" s="9"/>
       <x:c r="L10" s="12" t="s">
-        <x:v>27</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="M10" s="13"/>
     </x:row>
@@ -2241,13 +2241,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C11" s="9" t="s">
-        <x:v>63</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D11" s="11" t="s">
-        <x:v>88</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E11" s="9" t="s">
-        <x:v>14</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F11" s="9">
         <x:v>20</x:v>
@@ -2256,11 +2256,11 @@
       <x:c r="H11" s="9"/>
       <x:c r="I11" s="9"/>
       <x:c r="J11" s="9" t="s">
-        <x:v>46</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="K11" s="9"/>
       <x:c r="L11" s="12" t="s">
-        <x:v>83</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="M11" s="13"/>
     </x:row>
@@ -2269,13 +2269,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C12" s="9" t="s">
-        <x:v>45</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D12" s="11" t="s">
-        <x:v>36</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E12" s="9" t="s">
-        <x:v>14</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F12" s="9">
         <x:v>20</x:v>
@@ -2284,11 +2284,11 @@
       <x:c r="H12" s="9"/>
       <x:c r="I12" s="9"/>
       <x:c r="J12" s="9" t="s">
-        <x:v>46</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="K12" s="9"/>
       <x:c r="L12" s="12" t="s">
-        <x:v>48</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="M12" s="13"/>
     </x:row>
@@ -2297,13 +2297,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C13" s="9" t="s">
-        <x:v>84</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D13" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E13" s="9" t="s">
-        <x:v>14</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F13" s="9">
         <x:v>200</x:v>
@@ -2312,11 +2312,11 @@
       <x:c r="H13" s="9"/>
       <x:c r="I13" s="9"/>
       <x:c r="J13" s="9" t="s">
-        <x:v>46</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="K13" s="9"/>
       <x:c r="L13" s="12" t="s">
-        <x:v>17</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="M13" s="13"/>
     </x:row>
@@ -2325,13 +2325,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C14" s="9" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D14" s="11" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E14" s="9" t="s">
         <x:v>81</x:v>
-      </x:c>
-      <x:c r="D14" s="11" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="E14" s="9" t="s">
-        <x:v>14</x:v>
       </x:c>
       <x:c r="F14" s="9">
         <x:v>10</x:v>
@@ -2340,11 +2340,11 @@
       <x:c r="H14" s="9"/>
       <x:c r="I14" s="9"/>
       <x:c r="J14" s="9" t="s">
-        <x:v>46</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="K14" s="9"/>
       <x:c r="L14" s="12" t="s">
-        <x:v>13</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="M14" s="13"/>
     </x:row>
@@ -2353,13 +2353,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C15" s="9" t="s">
-        <x:v>51</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D15" s="11" t="s">
-        <x:v>85</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E15" s="9" t="s">
-        <x:v>14</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F15" s="9">
         <x:v>2</x:v>
@@ -2368,11 +2368,11 @@
       <x:c r="H15" s="9"/>
       <x:c r="I15" s="9"/>
       <x:c r="J15" s="9" t="s">
-        <x:v>46</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="K15" s="9"/>
       <x:c r="L15" s="12" t="s">
-        <x:v>94</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="M15" s="13"/>
     </x:row>
@@ -2381,13 +2381,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C16" s="9" t="s">
-        <x:v>73</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D16" s="11" t="s">
-        <x:v>78</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E16" s="9" t="s">
-        <x:v>14</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F16" s="9">
         <x:v>16</x:v>
@@ -2398,7 +2398,7 @@
       <x:c r="J16" s="9"/>
       <x:c r="K16" s="9"/>
       <x:c r="L16" s="12" t="s">
-        <x:v>0</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="M16" s="13"/>
     </x:row>
@@ -2407,13 +2407,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C17" s="9" t="s">
-        <x:v>87</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D17" s="11" t="s">
-        <x:v>49</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E17" s="9" t="s">
-        <x:v>14</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F17" s="9">
         <x:v>16</x:v>
@@ -2422,11 +2422,11 @@
       <x:c r="H17" s="9"/>
       <x:c r="I17" s="9"/>
       <x:c r="J17" s="9" t="s">
-        <x:v>46</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="K17" s="9"/>
       <x:c r="L17" s="12" t="s">
-        <x:v>0</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="M17" s="13"/>
     </x:row>
@@ -2435,13 +2435,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C18" s="9" t="s">
-        <x:v>42</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D18" s="11" t="s">
-        <x:v>89</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E18" s="9" t="s">
-        <x:v>14</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F18" s="9">
         <x:v>200</x:v>
@@ -2450,11 +2450,11 @@
       <x:c r="H18" s="9"/>
       <x:c r="I18" s="9"/>
       <x:c r="J18" s="9" t="s">
-        <x:v>46</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="K18" s="9"/>
       <x:c r="L18" s="14" t="s">
-        <x:v>26</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="M18" s="13"/>
     </x:row>
@@ -2463,13 +2463,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="9" t="s">
-        <x:v>44</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D19" s="11" t="s">
-        <x:v>79</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E19" s="9" t="s">
-        <x:v>14</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F19" s="9">
         <x:v>300</x:v>
@@ -2480,7 +2480,7 @@
       <x:c r="J19" s="9"/>
       <x:c r="K19" s="9"/>
       <x:c r="L19" s="12" t="s">
-        <x:v>98</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="M19" s="13"/>
     </x:row>
@@ -2489,13 +2489,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C20" s="9" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D20" s="11" t="s">
-        <x:v>75</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E20" s="9" t="s">
-        <x:v>14</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F20" s="9">
         <x:v>2</x:v>
@@ -2506,7 +2506,7 @@
       <x:c r="J20" s="9"/>
       <x:c r="K20" s="9"/>
       <x:c r="L20" s="12" t="s">
-        <x:v>6</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="M20" s="13"/>
     </x:row>
@@ -2515,13 +2515,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="9" t="s">
-        <x:v>33</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D21" s="11" t="s">
-        <x:v>80</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E21" s="9" t="s">
-        <x:v>14</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F21" s="9">
         <x:v>200</x:v>
@@ -2532,7 +2532,7 @@
       <x:c r="J21" s="9"/>
       <x:c r="K21" s="9"/>
       <x:c r="L21" s="12" t="s">
-        <x:v>4</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="M21" s="13"/>
     </x:row>
@@ -2541,13 +2541,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C22" s="9" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D22" s="11" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="D22" s="11" t="s">
-        <x:v>74</x:v>
-      </x:c>
       <x:c r="E22" s="9" t="s">
-        <x:v>14</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F22" s="9">
         <x:v>100</x:v>
@@ -2558,7 +2558,7 @@
       <x:c r="J22" s="9"/>
       <x:c r="K22" s="9"/>
       <x:c r="L22" s="12" t="s">
-        <x:v>68</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M22" s="13"/>
     </x:row>
@@ -2567,13 +2567,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C23" s="9" t="s">
-        <x:v>41</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D23" s="11" t="s">
-        <x:v>86</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E23" s="9" t="s">
-        <x:v>14</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F23" s="9">
         <x:v>2</x:v>
@@ -2584,7 +2584,7 @@
       <x:c r="J23" s="9"/>
       <x:c r="K23" s="9"/>
       <x:c r="L23" s="12" t="s">
-        <x:v>7</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="M23" s="13"/>
     </x:row>
@@ -2593,13 +2593,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C24" s="9" t="s">
-        <x:v>58</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D24" s="11" t="s">
-        <x:v>9</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E24" s="9" t="s">
-        <x:v>14</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F24" s="9">
         <x:v>1</x:v>
@@ -2608,11 +2608,11 @@
       <x:c r="H24" s="9"/>
       <x:c r="I24" s="9"/>
       <x:c r="J24" s="9" t="s">
-        <x:v>46</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="K24" s="9"/>
       <x:c r="L24" s="12" t="s">
-        <x:v>1</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M24" s="13"/>
     </x:row>
@@ -2621,13 +2621,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C25" s="9" t="s">
-        <x:v>40</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D25" s="11" t="s">
-        <x:v>22</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E25" s="9" t="s">
-        <x:v>56</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F25" s="9"/>
       <x:c r="G25" s="9"/>
@@ -2636,7 +2636,7 @@
       <x:c r="J25" s="9"/>
       <x:c r="K25" s="9"/>
       <x:c r="L25" s="12" t="s">
-        <x:v>13</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="M25" s="13"/>
     </x:row>
@@ -2645,13 +2645,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C26" s="9" t="s">
-        <x:v>52</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D26" s="11" t="s">
-        <x:v>20</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E26" s="9" t="s">
-        <x:v>56</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F26" s="9"/>
       <x:c r="G26" s="9"/>
@@ -2660,13 +2660,13 @@
       <x:c r="J26" s="9"/>
       <x:c r="K26" s="9"/>
       <x:c r="L26" s="12" t="s">
-        <x:v>13</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="M26" s="13"/>
     </x:row>
     <x:row r="27" spans="2:13">
       <x:c r="B27" s="10" t="s">
-        <x:v>59</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C27" s="15"/>
       <x:c r="D27" s="16"/>
@@ -2682,7 +2682,7 @@
     </x:row>
     <x:row r="30" spans="2:13">
       <x:c r="B30" s="33" t="s">
-        <x:v>53</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C30" s="34"/>
       <x:c r="D30" s="34"/>
@@ -2712,7 +2712,7 @@
     </x:row>
     <x:row r="32" spans="2:13">
       <x:c r="B32" s="39" t="s">
-        <x:v>12</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C32" s="40"/>
       <x:c r="D32" s="41"/>
@@ -2724,13 +2724,13 @@
       <x:c r="J32" s="42"/>
       <x:c r="K32" s="43"/>
       <x:c r="L32" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M32" s="3"/>
     </x:row>
     <x:row r="33" spans="2:13">
       <x:c r="B33" s="20" t="s">
-        <x:v>11</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C33" s="21"/>
       <x:c r="D33" s="44">
@@ -2744,19 +2744,19 @@
       <x:c r="J33" s="26"/>
       <x:c r="K33" s="27"/>
       <x:c r="L33" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="M33" s="5" t="s">
-        <x:v>38</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="2:13">
       <x:c r="B34" s="20" t="s">
-        <x:v>19</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C34" s="21"/>
       <x:c r="D34" s="22" t="s">
-        <x:v>18</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E34" s="23"/>
       <x:c r="F34" s="23"/>
@@ -2766,19 +2766,19 @@
       <x:c r="J34" s="23"/>
       <x:c r="K34" s="24"/>
       <x:c r="L34" s="4" t="s">
-        <x:v>64</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="M34" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="2:13">
       <x:c r="B35" s="20" t="s">
-        <x:v>60</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C35" s="21"/>
       <x:c r="D35" s="25" t="s">
-        <x:v>67</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E35" s="26"/>
       <x:c r="F35" s="26"/>
@@ -2788,19 +2788,19 @@
       <x:c r="J35" s="26"/>
       <x:c r="K35" s="27"/>
       <x:c r="L35" s="4" t="s">
-        <x:v>62</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="M35" s="5" t="s">
-        <x:v>47</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="2:13">
       <x:c r="B36" s="28" t="s">
-        <x:v>96</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C36" s="29"/>
       <x:c r="D36" s="30" t="s">
-        <x:v>2</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E36" s="31"/>
       <x:c r="F36" s="31"/>
@@ -2814,37 +2814,37 @@
     </x:row>
     <x:row r="37" spans="2:13" ht="23.899999999999999">
       <x:c r="B37" s="6" t="s">
-        <x:v>57</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C37" s="7" t="s">
-        <x:v>21</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D37" s="7" t="s">
-        <x:v>15</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E37" s="7" t="s">
-        <x:v>16</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F37" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G37" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H37" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I37" s="7" t="s">
-        <x:v>10</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J37" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K37" s="7" t="s">
-        <x:v>37</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="L37" s="18" t="s">
-        <x:v>97</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="M37" s="19"/>
     </x:row>
@@ -2853,26 +2853,26 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C38" s="9" t="s">
-        <x:v>77</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D38" s="11" t="s">
-        <x:v>93</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E38" s="9" t="s">
-        <x:v>14</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F38" s="9">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G38" s="9" t="s">
-        <x:v>35</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H38" s="9"/>
       <x:c r="I38" s="9"/>
       <x:c r="J38" s="9"/>
       <x:c r="K38" s="9"/>
       <x:c r="L38" s="12" t="s">
-        <x:v>70</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="M38" s="13"/>
     </x:row>
@@ -2881,13 +2881,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C39" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D39" s="11" t="s">
-        <x:v>23</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E39" s="9" t="s">
-        <x:v>14</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F39" s="9">
         <x:v>50</x:v>
@@ -2896,11 +2896,11 @@
       <x:c r="H39" s="9"/>
       <x:c r="I39" s="9"/>
       <x:c r="J39" s="9" t="s">
-        <x:v>46</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="K39" s="9"/>
       <x:c r="L39" s="12" t="s">
-        <x:v>31</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M39" s="13"/>
     </x:row>
@@ -2909,13 +2909,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C40" s="9" t="s">
-        <x:v>90</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D40" s="11" t="s">
-        <x:v>91</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E40" s="9" t="s">
-        <x:v>14</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F40" s="9">
         <x:v>50</x:v>
@@ -2924,11 +2924,11 @@
       <x:c r="H40" s="9"/>
       <x:c r="I40" s="9"/>
       <x:c r="J40" s="9" t="s">
-        <x:v>46</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="K40" s="9"/>
       <x:c r="L40" s="12" t="s">
-        <x:v>31</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M40" s="13"/>
     </x:row>
@@ -2937,13 +2937,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C41" s="9" t="s">
-        <x:v>92</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D41" s="11" t="s">
-        <x:v>24</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E41" s="9" t="s">
-        <x:v>14</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F41" s="9">
         <x:v>2000</x:v>
@@ -2954,7 +2954,7 @@
       <x:c r="J41" s="9"/>
       <x:c r="K41" s="9"/>
       <x:c r="L41" s="12" t="s">
-        <x:v>31</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M41" s="13"/>
     </x:row>
@@ -2963,13 +2963,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C42" s="9" t="s">
-        <x:v>69</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D42" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E42" s="9" t="s">
-        <x:v>14</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F42" s="9">
         <x:v>20</x:v>
@@ -2980,7 +2980,7 @@
       <x:c r="J42" s="9"/>
       <x:c r="K42" s="9"/>
       <x:c r="L42" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M42" s="13"/>
     </x:row>
@@ -2989,13 +2989,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C43" s="9" t="s">
-        <x:v>58</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D43" s="11" t="s">
-        <x:v>9</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E43" s="9" t="s">
-        <x:v>14</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F43" s="9">
         <x:v>1</x:v>
@@ -3006,7 +3006,7 @@
       <x:c r="J43" s="9"/>
       <x:c r="K43" s="9"/>
       <x:c r="L43" s="12" t="s">
-        <x:v>95</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="M43" s="13"/>
     </x:row>
@@ -3015,13 +3015,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C44" s="9" t="s">
-        <x:v>40</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D44" s="11" t="s">
-        <x:v>22</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E44" s="9" t="s">
-        <x:v>56</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F44" s="9"/>
       <x:c r="G44" s="9"/>
@@ -3030,7 +3030,7 @@
       <x:c r="J44" s="9"/>
       <x:c r="K44" s="9"/>
       <x:c r="L44" s="12" t="s">
-        <x:v>71</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M44" s="13"/>
     </x:row>
@@ -3039,13 +3039,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C45" s="9" t="s">
-        <x:v>52</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D45" s="11" t="s">
-        <x:v>20</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E45" s="9" t="s">
-        <x:v>56</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F45" s="9"/>
       <x:c r="G45" s="9"/>
@@ -3054,13 +3054,13 @@
       <x:c r="J45" s="9"/>
       <x:c r="K45" s="9"/>
       <x:c r="L45" s="12" t="s">
-        <x:v>71</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M45" s="13"/>
     </x:row>
     <x:row r="46" spans="2:13">
       <x:c r="B46" s="10" t="s">
-        <x:v>59</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C46" s="15"/>
       <x:c r="D46" s="16"/>
@@ -3128,7 +3128,7 @@
     <x:mergeCell ref="D33:K33"/>
     <x:mergeCell ref="L45:M45"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>